--- a/stats-RudyGobert.xlsx
+++ b/stats-RudyGobert.xlsx
@@ -8,14 +8,13 @@
     <sheet state="visible" name="2022-2023" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="2021-2022" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="2020-2021" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="2020-2019" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="2019-2020" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="2018-2019" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="2017-2018" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="2016-2017" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="2015-2016" sheetId="10" r:id="rId13"/>
     <sheet state="visible" name="2014-2015" sheetId="11" r:id="rId14"/>
     <sheet state="visible" name="2013-2014" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="glossaire" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6751" uniqueCount="1237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6725" uniqueCount="1211">
   <si>
     <t>Rk</t>
   </si>
@@ -3656,84 +3655,6 @@
   </si>
   <si>
     <t>21-294</t>
-  </si>
-  <si>
-    <t>Rk -- Rank</t>
-  </si>
-  <si>
-    <t>G -- Season Game</t>
-  </si>
-  <si>
-    <t>Age -- Player's age on February 1 of the season</t>
-  </si>
-  <si>
-    <t>Tm -- Team</t>
-  </si>
-  <si>
-    <t>Opp -- Opponent</t>
-  </si>
-  <si>
-    <t>GS -- Games Started</t>
-  </si>
-  <si>
-    <t>MP -- Minutes Played</t>
-  </si>
-  <si>
-    <t>FG -- Field Goals</t>
-  </si>
-  <si>
-    <t>FGA -- Field Goal Attempts</t>
-  </si>
-  <si>
-    <t>FG% -- Field Goal Percentage</t>
-  </si>
-  <si>
-    <t>3P -- 3-Point Field Goals</t>
-  </si>
-  <si>
-    <t>3PA -- 3-Point Field Goal Attempts</t>
-  </si>
-  <si>
-    <t>3P% -- 3-Point Field Goal Percentage</t>
-  </si>
-  <si>
-    <t>FT -- Free Throws</t>
-  </si>
-  <si>
-    <t>FTA -- Free Throw Attempts</t>
-  </si>
-  <si>
-    <t>FT% -- Free Throw Percentage</t>
-  </si>
-  <si>
-    <t>ORB -- Offensive Rebounds</t>
-  </si>
-  <si>
-    <t>DRB -- Defensive Rebounds</t>
-  </si>
-  <si>
-    <t>TRB -- Total Rebounds</t>
-  </si>
-  <si>
-    <t>AST -- Assists</t>
-  </si>
-  <si>
-    <t>STL -- Steals</t>
-  </si>
-  <si>
-    <t>BLK -- Blocks</t>
-  </si>
-  <si>
-    <t>TOV -- Turnovers</t>
-  </si>
-  <si>
-    <t>PF -- Personal Fouls</t>
-  </si>
-  <si>
-    <t>PTS -- Points</t>
-  </si>
-  <si>
-    <t>GmSc -- Game Score</t>
   </si>
 </sst>
 </file>
@@ -3746,7 +3667,7 @@
     <numFmt numFmtId="166" formatCode="d.m"/>
     <numFmt numFmtId="167" formatCode="hh:mm"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3764,25 +3685,13 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Helvetica Neue&quot;"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3791,7 +3700,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3806,12 +3715,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3833,10 +3736,6 @@
 </file>
 
 <file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -25885,316 +25784,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="8" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="8" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="8" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="8" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="8" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="8" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="8" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="8" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="8" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="8" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="8" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="8" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="9"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="8"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="8"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="8"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="8"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="8"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="8"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="8"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="8"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="8"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="8"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="8"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="8"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="8"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="8"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="8"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="8"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="8"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="8"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="8"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="8"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="8"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="8"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="8"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="8"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="8"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="8"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="9"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="8"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="8"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="8"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="8"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="8"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="8"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="8"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="8"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="8"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="8"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="8"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="8"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="8"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="8"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="8"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="8"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="8"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="8"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="8"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="8"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="8"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="8"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="8"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="8"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="8"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="8"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="9"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
